--- a/data/UPS Mean-Variance.xlsx
+++ b/data/UPS Mean-Variance.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\Desktop\UPS MV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nvg9hxp\Documents\Projects\UPS_MV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C76506C-AB84-4A9D-9599-59D8B9AA1042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="696" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="696" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primitive Factor Input" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
     <definedName name="Funded_Status_Loadings">'[1]Factor Loadings'!$B$8:$B$23</definedName>
     <definedName name="Liability_OAD">[1]Control!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,12 +48,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dan Scholz</author>
   </authors>
   <commentList>
-    <comment ref="F76" authorId="0" shapeId="0">
+    <comment ref="F76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -81,14 +82,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -594,7 +595,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2051,7 +2052,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10 2" xfId="2"/>
+    <cellStyle name="Normal 10 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
@@ -4753,33 +4754,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AB102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H55" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="86.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="27" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="86.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="27" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="49" t="s">
         <v>72</v>
       </c>
@@ -4787,12 +4788,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
         <v>102</v>
       </c>
@@ -4800,7 +4801,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="21" t="s">
         <v>46</v>
       </c>
@@ -4808,7 +4809,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
         <v>50</v>
       </c>
@@ -4819,7 +4820,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
         <v>49</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="20" t="s">
         <v>91</v>
       </c>
@@ -4838,7 +4839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
         <v>16</v>
       </c>
@@ -4849,7 +4850,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="21" t="s">
         <v>0</v>
       </c>
@@ -4860,7 +4861,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">
         <v>1</v>
       </c>
@@ -4871,7 +4872,7 @@
         <v>1.2233859699999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="21" t="s">
         <v>2</v>
       </c>
@@ -4882,7 +4883,7 @@
         <v>6.2254885000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
         <v>3</v>
       </c>
@@ -4893,7 +4894,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="20" t="s">
         <v>107</v>
       </c>
@@ -4910,7 +4911,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="21" t="s">
         <v>4</v>
       </c>
@@ -4928,7 +4929,7 @@
         <v>1.1136341732850885</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
         <v>5</v>
       </c>
@@ -4946,7 +4947,7 @@
         <v>0.99403057241926163</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="21" t="s">
         <v>6</v>
       </c>
@@ -4964,7 +4965,7 @@
         <v>1.2174925444402591</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
         <v>7</v>
       </c>
@@ -4982,7 +4983,7 @@
         <v>1.173360518480016</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="21" t="s">
         <v>8</v>
       </c>
@@ -5001,7 +5002,7 @@
         <v>1.2174925444402591</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
         <v>9</v>
       </c>
@@ -5020,7 +5021,7 @@
         <v>0.99403057241926163</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="21" t="s">
         <v>10</v>
       </c>
@@ -5039,7 +5040,7 @@
         <v>1.1136341732850885</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="21" t="s">
         <v>11</v>
       </c>
@@ -5058,7 +5059,7 @@
         <v>1.1136341732850885</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
         <v>12</v>
       </c>
@@ -5077,7 +5078,7 @@
         <v>1.1136341732850885</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="21" t="s">
         <v>13</v>
       </c>
@@ -5096,14 +5097,14 @@
         <v>1.1136341732850885</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="21"/>
       <c r="C32" s="18"/>
       <c r="D32" s="33"/>
       <c r="E32" s="93"/>
       <c r="F32" s="94"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
         <v>131</v>
       </c>
@@ -5123,7 +5124,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="100" t="s">
         <v>1</v>
       </c>
@@ -5145,7 +5146,7 @@
         <v>38.547834976033464</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="100" t="s">
         <v>2</v>
       </c>
@@ -5167,7 +5168,7 @@
         <v>34.685400297212006</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="100" t="s">
         <v>32</v>
       </c>
@@ -5189,14 +5190,14 @@
         <v>30.348234287568442</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="21"/>
       <c r="C37" s="18"/>
       <c r="D37" s="33"/>
       <c r="E37" s="93"/>
       <c r="F37" s="94"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="20" t="s">
         <v>120</v>
       </c>
@@ -5205,7 +5206,7 @@
       <c r="E38" s="93"/>
       <c r="F38" s="94"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="21" t="s">
         <v>111</v>
       </c>
@@ -5216,7 +5217,7 @@
       <c r="E39" s="93"/>
       <c r="F39" s="94"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="21" t="s">
         <v>112</v>
       </c>
@@ -5227,7 +5228,7 @@
       <c r="E40" s="93"/>
       <c r="F40" s="94"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="21" t="s">
         <v>113</v>
       </c>
@@ -5238,25 +5239,25 @@
       <c r="E41" s="93"/>
       <c r="F41" s="94"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="21" t="s">
         <v>114</v>
       </c>
       <c r="C42" s="99">
-        <v>80.113709997260258</v>
+        <v>80.113709997260301</v>
       </c>
       <c r="D42" s="33"/>
       <c r="E42" s="93"/>
       <c r="F42" s="94"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="21"/>
       <c r="C43" s="94"/>
       <c r="D43" s="33"/>
       <c r="E43" s="93"/>
       <c r="F43" s="94"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="20" t="s">
         <v>121</v>
       </c>
@@ -5271,7 +5272,7 @@
       </c>
       <c r="F44" s="94"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="21" t="s">
         <v>122</v>
       </c>
@@ -5287,7 +5288,7 @@
       </c>
       <c r="F45" s="94"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="21" t="s">
         <v>125</v>
       </c>
@@ -5303,7 +5304,7 @@
       </c>
       <c r="F46" s="94"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="21" t="s">
         <v>126</v>
       </c>
@@ -5319,7 +5320,7 @@
       </c>
       <c r="F47" s="94"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="21" t="s">
         <v>127</v>
       </c>
@@ -5335,14 +5336,14 @@
       </c>
       <c r="F48" s="94"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B49" s="21"/>
       <c r="C49" s="94"/>
       <c r="D49" s="33"/>
       <c r="E49" s="93"/>
       <c r="F49" s="94"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B50" s="20" t="s">
         <v>128</v>
       </c>
@@ -5353,7 +5354,7 @@
       <c r="E50" s="93"/>
       <c r="F50" s="94"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B51" s="21" t="s">
         <v>116</v>
       </c>
@@ -5367,7 +5368,7 @@
       <c r="E51" s="93"/>
       <c r="F51" s="94"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B52" s="21" t="s">
         <v>117</v>
       </c>
@@ -5381,7 +5382,7 @@
       <c r="E52" s="93"/>
       <c r="F52" s="94"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B53" s="21" t="s">
         <v>118</v>
       </c>
@@ -5395,13 +5396,13 @@
       <c r="E53" s="94"/>
       <c r="F53" s="94"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B54" s="21" t="s">
         <v>119</v>
       </c>
       <c r="C54" s="95">
         <f>C42*E48</f>
-        <v>73.3563908</v>
+        <v>73.356390800000042</v>
       </c>
       <c r="D54" s="110">
         <v>30</v>
@@ -5409,7 +5410,7 @@
       <c r="E54" s="93"/>
       <c r="F54" s="94"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B56" s="21" t="s">
         <v>25</v>
       </c>
@@ -5447,7 +5448,7 @@
       <c r="Z56" s="223"/>
       <c r="AA56" s="223"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" s="90"/>
       <c r="B57" s="224" t="s">
         <v>15</v>
@@ -5460,7 +5461,7 @@
       </c>
       <c r="F57" s="107">
         <f>(C53+(C15-D53)*(C54-C53)/(D54-D53))/10000</f>
-        <v>6.9838693014654283E-3</v>
+        <v>6.9838693014654309E-3</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>93</v>
@@ -5526,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" s="90"/>
       <c r="B58" s="224"/>
       <c r="C58" s="36" t="s">
@@ -5603,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" s="90"/>
       <c r="B59" s="225" t="s">
         <v>20</v>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F59" s="108">
         <f>(C53+(C16-D53)*(C54-C53)/(D54-D53))/10000</f>
-        <v>7.1712427024068848E-3</v>
+        <v>7.1712427024068874E-3</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>37</v>
@@ -5682,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" s="90"/>
       <c r="B60" s="225"/>
       <c r="C60" s="37" t="s">
@@ -5759,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" s="90"/>
       <c r="B61" s="225"/>
       <c r="C61" s="37" t="s">
@@ -5836,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" s="90"/>
       <c r="B62" s="225"/>
       <c r="C62" s="37" t="s">
@@ -5847,7 +5848,7 @@
       </c>
       <c r="F62" s="108">
         <f>(C53+(C19-D53)*(C54-C53)/(D54-D53))/10000</f>
-        <v>6.951582466204447E-3</v>
+        <v>6.9515824662044479E-3</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>37</v>
@@ -5913,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" s="90"/>
       <c r="B63" s="111"/>
       <c r="C63" s="47" t="s">
@@ -6005,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" s="90"/>
       <c r="B64" s="111" t="s">
         <v>21</v>
@@ -6084,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" s="90"/>
       <c r="B65" s="111"/>
       <c r="C65" s="47" t="s">
@@ -6161,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" s="90"/>
       <c r="B66" s="226" t="s">
         <v>26</v>
@@ -6240,7 +6241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" s="90"/>
       <c r="B67" s="226"/>
       <c r="C67" s="38" t="s">
@@ -6317,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A68" s="90"/>
       <c r="B68" s="226"/>
       <c r="C68" s="38" t="s">
@@ -6394,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A69" s="90"/>
       <c r="B69" s="226"/>
       <c r="C69" s="38" t="s">
@@ -6471,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A70" s="90"/>
       <c r="B70" s="226"/>
       <c r="C70" s="38" t="s">
@@ -6548,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A71" s="90"/>
       <c r="B71" s="226"/>
       <c r="C71" s="38" t="s">
@@ -6625,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A72" s="90"/>
       <c r="B72" s="226"/>
       <c r="C72" s="38" t="s">
@@ -6702,7 +6703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A73" s="90"/>
       <c r="B73" s="226"/>
       <c r="C73" s="38" t="s">
@@ -6779,7 +6780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A74" s="90"/>
       <c r="B74" s="226"/>
       <c r="C74" s="38" t="s">
@@ -6856,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A75" s="90"/>
       <c r="B75" s="226"/>
       <c r="C75" s="38" t="s">
@@ -6933,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A76" s="90"/>
       <c r="B76" s="91" t="s">
         <v>14</v>
@@ -7011,14 +7012,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
       <c r="F77" s="90"/>
       <c r="G77" s="90"/>
       <c r="I77" s="59" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I79" s="223" t="s">
         <v>44</v>
       </c>
@@ -7041,84 +7042,84 @@
       <c r="Z79" s="223"/>
       <c r="AA79" s="223"/>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="G80" s="29" t="s">
         <v>31</v>
       </c>
       <c r="I80" s="55">
         <f t="array" ref="I80:AB99">MMULT(F57:F76,TRANSPOSE(F57:F76))*I57:AB76</f>
-        <v>4.8774430419951211E-5</v>
+        <v>4.8774430419951245E-5</v>
       </c>
       <c r="J80" s="55">
-        <v>-8.6612280959282475E-6</v>
+        <v>-8.6612280959282508E-6</v>
       </c>
       <c r="K80" s="55">
-        <v>5.0015337340158725E-5</v>
+        <v>5.0015337340158765E-5</v>
       </c>
       <c r="L80" s="55">
-        <v>4.7455545827059656E-5</v>
+        <v>4.7455545827059676E-5</v>
       </c>
       <c r="M80" s="55">
-        <v>3.7366189829023365E-5</v>
+        <v>3.7366189829023371E-5</v>
       </c>
       <c r="N80" s="55">
-        <v>4.8516886802855454E-5</v>
+        <v>4.8516886802855481E-5</v>
       </c>
       <c r="O80" s="55">
         <v>0</v>
       </c>
       <c r="P80" s="55">
-        <v>-1.173295842183846E-5</v>
+        <v>-1.1732958421838464E-5</v>
       </c>
       <c r="Q80" s="55">
-        <v>-6.9410691653132025E-6</v>
+        <v>-6.941069165313205E-6</v>
       </c>
       <c r="R80" s="55">
-        <v>-3.759714072217064E-4</v>
+        <v>-3.7597140722170661E-4</v>
       </c>
       <c r="S80" s="55">
-        <v>-5.7684950326557032E-4</v>
+        <v>-5.7684950326557054E-4</v>
       </c>
       <c r="T80" s="55">
-        <v>-4.6524571761226956E-4</v>
+        <v>-4.6524571761226972E-4</v>
       </c>
       <c r="U80" s="55">
-        <v>-4.1997951995920792E-4</v>
+        <v>-4.1997951995920803E-4</v>
       </c>
       <c r="V80" s="55">
-        <v>-4.3467810970683392E-4</v>
+        <v>-4.3467810970683409E-4</v>
       </c>
       <c r="W80" s="55">
-        <v>-5.7684950326557032E-4</v>
+        <v>-5.7684950326557054E-4</v>
       </c>
       <c r="X80" s="55">
-        <v>3.7308386446571035E-5</v>
+        <v>3.7308386446571049E-5</v>
       </c>
       <c r="Y80" s="55">
-        <v>-1.0342562568118445E-4</v>
+        <v>-1.034256256811845E-4</v>
       </c>
       <c r="Z80" s="55">
-        <v>-1.0381823686355888E-4</v>
+        <v>-1.0381823686355893E-4</v>
       </c>
       <c r="AA80" s="55">
-        <v>-7.8632907395847845E-4</v>
+        <v>-7.8632907395847866E-4</v>
       </c>
       <c r="AB80" s="55">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G81" s="29" t="s">
         <v>32</v>
       </c>
       <c r="I81" s="55">
-        <v>-8.6612280959282475E-6</v>
+        <v>-8.6612280959282508E-6</v>
       </c>
       <c r="J81" s="55">
         <v>9.2101532437314471E-6</v>
       </c>
       <c r="K81" s="55">
-        <v>-8.7198753437707942E-6</v>
+        <v>-8.7198753437707976E-6</v>
       </c>
       <c r="L81" s="55">
         <v>-8.4993094753931451E-6</v>
@@ -7172,83 +7173,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G82" s="30" t="s">
         <v>0</v>
       </c>
       <c r="I82" s="56">
-        <v>5.0015337340158725E-5</v>
+        <v>5.0015337340158765E-5</v>
       </c>
       <c r="J82" s="56">
-        <v>-8.7198753437707942E-6</v>
+        <v>-8.7198753437707976E-6</v>
       </c>
       <c r="K82" s="56">
-        <v>5.1426721896824001E-5</v>
+        <v>5.1426721896824035E-5</v>
       </c>
       <c r="L82" s="56">
-        <v>4.8576899383796547E-5</v>
+        <v>4.8576899383796561E-5</v>
       </c>
       <c r="M82" s="56">
-        <v>3.7494504162119012E-5</v>
+        <v>3.7494504162119025E-5</v>
       </c>
       <c r="N82" s="56">
-        <v>4.980750805535103E-5</v>
+        <v>4.9807508055351058E-5</v>
       </c>
       <c r="O82" s="56">
         <v>0</v>
       </c>
       <c r="P82" s="56">
-        <v>-1.203409901824616E-5</v>
+        <v>-1.2034099018246165E-5</v>
       </c>
       <c r="Q82" s="56">
-        <v>-7.1494009019271592E-6</v>
+        <v>-7.1494009019271617E-6</v>
       </c>
       <c r="R82" s="56">
-        <v>-3.8850248518606151E-4</v>
+        <v>-3.8850248518606162E-4</v>
       </c>
       <c r="S82" s="56">
-        <v>-5.967301795395195E-4</v>
+        <v>-5.967301795395196E-4</v>
       </c>
       <c r="T82" s="56">
-        <v>-4.871568276171277E-4</v>
+        <v>-4.8715682761712781E-4</v>
       </c>
       <c r="U82" s="56">
-        <v>-4.4253199811911787E-4</v>
+        <v>-4.4253199811911798E-4</v>
       </c>
       <c r="V82" s="56">
-        <v>-4.5269376170030824E-4</v>
+        <v>-4.526937617003084E-4</v>
       </c>
       <c r="W82" s="56">
-        <v>-5.967301795395195E-4</v>
+        <v>-5.967301795395196E-4</v>
       </c>
       <c r="X82" s="56">
-        <v>3.6250425511735053E-5</v>
+        <v>3.6250425511735066E-5</v>
       </c>
       <c r="Y82" s="56">
-        <v>-1.0946409192262506E-4</v>
+        <v>-1.094640919226251E-4</v>
       </c>
       <c r="Z82" s="56">
-        <v>-1.0713977057532101E-4</v>
+        <v>-1.0713977057532105E-4</v>
       </c>
       <c r="AA82" s="56">
-        <v>-8.1773373671048153E-4</v>
+        <v>-8.1773373671048186E-4</v>
       </c>
       <c r="AB82" s="56">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G83" s="30" t="s">
         <v>1</v>
       </c>
       <c r="I83" s="56">
-        <v>4.7455545827059656E-5</v>
+        <v>4.7455545827059676E-5</v>
       </c>
       <c r="J83" s="56">
         <v>-8.4993094753931451E-6</v>
       </c>
       <c r="K83" s="56">
-        <v>4.8576899383796547E-5</v>
+        <v>4.8576899383796561E-5</v>
       </c>
       <c r="L83" s="56">
         <v>4.6355157164235205E-5</v>
@@ -7257,7 +7258,7 @@
         <v>3.7309649853420911E-5</v>
       </c>
       <c r="N83" s="56">
-        <v>4.7236461024185305E-5</v>
+        <v>4.7236461024185312E-5</v>
       </c>
       <c r="O83" s="56">
         <v>0</v>
@@ -7302,18 +7303,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="84" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G84" s="30" t="s">
         <v>2</v>
       </c>
       <c r="I84" s="56">
-        <v>3.7366189829023365E-5</v>
+        <v>3.7366189829023371E-5</v>
       </c>
       <c r="J84" s="56">
         <v>-8.4657744051919916E-6</v>
       </c>
       <c r="K84" s="56">
-        <v>3.7494504162119012E-5</v>
+        <v>3.7494504162119025E-5</v>
       </c>
       <c r="L84" s="56">
         <v>3.7309649853420911E-5</v>
@@ -7322,7 +7323,7 @@
         <v>3.6557064708512639E-5</v>
       </c>
       <c r="N84" s="56">
-        <v>3.713369822249638E-5</v>
+        <v>3.7133698222496386E-5</v>
       </c>
       <c r="O84" s="56">
         <v>0</v>
@@ -7367,72 +7368,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="85" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G85" s="30" t="s">
         <v>3</v>
       </c>
       <c r="I85" s="56">
-        <v>4.8516886802855454E-5</v>
+        <v>4.8516886802855481E-5</v>
       </c>
       <c r="J85" s="56">
         <v>-8.6716972038960334E-6</v>
       </c>
       <c r="K85" s="56">
-        <v>4.980750805535103E-5</v>
+        <v>4.9807508055351058E-5</v>
       </c>
       <c r="L85" s="56">
-        <v>4.7236461024185305E-5</v>
+        <v>4.7236461024185312E-5</v>
       </c>
       <c r="M85" s="56">
-        <v>3.713369822249638E-5</v>
+        <v>3.7133698222496386E-5</v>
       </c>
       <c r="N85" s="56">
-        <v>4.8324498784441104E-5</v>
+        <v>4.8324498784441111E-5</v>
       </c>
       <c r="O85" s="56">
         <v>0</v>
       </c>
       <c r="P85" s="56">
-        <v>-1.1795325813147257E-5</v>
+        <v>-1.1795325813147259E-5</v>
       </c>
       <c r="Q85" s="56">
-        <v>-7.0399582584243893E-6</v>
+        <v>-7.0399582584243901E-6</v>
       </c>
       <c r="R85" s="56">
-        <v>-3.7721586069892768E-4</v>
+        <v>-3.7721586069892774E-4</v>
       </c>
       <c r="S85" s="56">
-        <v>-5.807508314528921E-4</v>
+        <v>-5.8075083145289221E-4</v>
       </c>
       <c r="T85" s="56">
-        <v>-4.6957682906200783E-4</v>
+        <v>-4.6957682906200793E-4</v>
       </c>
       <c r="U85" s="56">
-        <v>-4.2353473550649055E-4</v>
+        <v>-4.2353473550649061E-4</v>
       </c>
       <c r="V85" s="56">
         <v>-4.3748203037278669E-4</v>
       </c>
       <c r="W85" s="56">
-        <v>-5.807508314528921E-4</v>
+        <v>-5.8075083145289221E-4</v>
       </c>
       <c r="X85" s="56">
         <v>3.4140452223707559E-5</v>
       </c>
       <c r="Y85" s="56">
-        <v>-1.0627347405907474E-4</v>
+        <v>-1.0627347405907477E-4</v>
       </c>
       <c r="Z85" s="56">
-        <v>-1.0491696165854206E-4</v>
+        <v>-1.0491696165854207E-4</v>
       </c>
       <c r="AA85" s="56">
-        <v>-7.9024024329498854E-4</v>
+        <v>-7.9024024329498864E-4</v>
       </c>
       <c r="AB85" s="56">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="86" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G86" s="31" t="s">
         <v>136</v>
       </c>
@@ -7497,18 +7498,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="87" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G87" s="31" t="s">
         <v>1</v>
       </c>
       <c r="I87" s="57">
-        <v>-1.173295842183846E-5</v>
+        <v>-1.1732958421838464E-5</v>
       </c>
       <c r="J87" s="57">
         <v>1.1131713498336503E-5</v>
       </c>
       <c r="K87" s="57">
-        <v>-1.203409901824616E-5</v>
+        <v>-1.2034099018246165E-5</v>
       </c>
       <c r="L87" s="57">
         <v>-1.1684271379640352E-5</v>
@@ -7517,7 +7518,7 @@
         <v>-1.1184239189094434E-5</v>
       </c>
       <c r="N87" s="57">
-        <v>-1.1795325813147257E-5</v>
+        <v>-1.1795325813147259E-5</v>
       </c>
       <c r="O87" s="57">
         <v>0</v>
@@ -7562,18 +7563,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="88" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G88" s="31" t="s">
         <v>2</v>
       </c>
       <c r="I88" s="57">
-        <v>-6.9410691653132025E-6</v>
+        <v>-6.941069165313205E-6</v>
       </c>
       <c r="J88" s="57">
         <v>9.7036801574937167E-6</v>
       </c>
       <c r="K88" s="57">
-        <v>-7.1494009019271592E-6</v>
+        <v>-7.1494009019271617E-6</v>
       </c>
       <c r="L88" s="57">
         <v>-6.9431383230830252E-6</v>
@@ -7582,7 +7583,7 @@
         <v>-7.4185769940498883E-6</v>
       </c>
       <c r="N88" s="57">
-        <v>-7.0399582584243893E-6</v>
+        <v>-7.0399582584243901E-6</v>
       </c>
       <c r="O88" s="57">
         <v>0</v>
@@ -7627,18 +7628,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="89" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G89" s="32" t="s">
         <v>4</v>
       </c>
       <c r="I89" s="58">
-        <v>-3.759714072217064E-4</v>
+        <v>-3.7597140722170661E-4</v>
       </c>
       <c r="J89" s="58">
         <v>3.4809256233121213E-4</v>
       </c>
       <c r="K89" s="58">
-        <v>-3.8850248518606151E-4</v>
+        <v>-3.8850248518606162E-4</v>
       </c>
       <c r="L89" s="58">
         <v>-3.6909201092499085E-4</v>
@@ -7647,7 +7648,7 @@
         <v>-3.3548161985019737E-4</v>
       </c>
       <c r="N89" s="58">
-        <v>-3.7721586069892768E-4</v>
+        <v>-3.7721586069892774E-4</v>
       </c>
       <c r="O89" s="58">
         <v>0</v>
@@ -7692,18 +7693,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G90" s="32" t="s">
         <v>5</v>
       </c>
       <c r="I90" s="58">
-        <v>-5.7684950326557032E-4</v>
+        <v>-5.7684950326557054E-4</v>
       </c>
       <c r="J90" s="58">
         <v>4.3611592317714128E-4</v>
       </c>
       <c r="K90" s="58">
-        <v>-5.967301795395195E-4</v>
+        <v>-5.967301795395196E-4</v>
       </c>
       <c r="L90" s="58">
         <v>-5.6969848396581772E-4</v>
@@ -7712,7 +7713,7 @@
         <v>-5.0962361945846625E-4</v>
       </c>
       <c r="N90" s="58">
-        <v>-5.807508314528921E-4</v>
+        <v>-5.8075083145289221E-4</v>
       </c>
       <c r="O90" s="58">
         <v>0</v>
@@ -7757,18 +7758,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="91" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G91" s="32" t="s">
         <v>6</v>
       </c>
       <c r="I91" s="58">
-        <v>-4.6524571761226956E-4</v>
+        <v>-4.6524571761226972E-4</v>
       </c>
       <c r="J91" s="58">
         <v>4.0834026241405499E-4</v>
       </c>
       <c r="K91" s="58">
-        <v>-4.871568276171277E-4</v>
+        <v>-4.8715682761712781E-4</v>
       </c>
       <c r="L91" s="58">
         <v>-4.539631027306804E-4</v>
@@ -7777,7 +7778,7 @@
         <v>-3.5943945141912075E-4</v>
       </c>
       <c r="N91" s="58">
-        <v>-4.6957682906200783E-4</v>
+        <v>-4.6957682906200793E-4</v>
       </c>
       <c r="O91" s="58">
         <v>0</v>
@@ -7822,18 +7823,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="92" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G92" s="32" t="s">
         <v>7</v>
       </c>
       <c r="I92" s="58">
-        <v>-4.1997951995920792E-4</v>
+        <v>-4.1997951995920803E-4</v>
       </c>
       <c r="J92" s="58">
         <v>4.2213434290575008E-4</v>
       </c>
       <c r="K92" s="58">
-        <v>-4.4253199811911787E-4</v>
+        <v>-4.4253199811911798E-4</v>
       </c>
       <c r="L92" s="58">
         <v>-4.0702833197181547E-4</v>
@@ -7842,7 +7843,7 @@
         <v>-3.0034927561647067E-4</v>
       </c>
       <c r="N92" s="58">
-        <v>-4.2353473550649055E-4</v>
+        <v>-4.2353473550649061E-4</v>
       </c>
       <c r="O92" s="58">
         <v>0</v>
@@ -7887,18 +7888,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="93" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G93" s="32" t="s">
         <v>8</v>
       </c>
       <c r="I93" s="58">
-        <v>-4.3467810970683392E-4</v>
+        <v>-4.3467810970683409E-4</v>
       </c>
       <c r="J93" s="58">
         <v>4.0642357593957782E-4</v>
       </c>
       <c r="K93" s="58">
-        <v>-4.5269376170030824E-4</v>
+        <v>-4.526937617003084E-4</v>
       </c>
       <c r="L93" s="58">
         <v>-4.249066173442538E-4</v>
@@ -7952,18 +7953,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G94" s="32" t="s">
         <v>9</v>
       </c>
       <c r="I94" s="58">
-        <v>-5.7684950326557032E-4</v>
+        <v>-5.7684950326557054E-4</v>
       </c>
       <c r="J94" s="58">
         <v>4.3611592317714128E-4</v>
       </c>
       <c r="K94" s="58">
-        <v>-5.967301795395195E-4</v>
+        <v>-5.967301795395196E-4</v>
       </c>
       <c r="L94" s="58">
         <v>-5.6969848396581772E-4</v>
@@ -7972,7 +7973,7 @@
         <v>-5.0962361945846625E-4</v>
       </c>
       <c r="N94" s="58">
-        <v>-5.807508314528921E-4</v>
+        <v>-5.8075083145289221E-4</v>
       </c>
       <c r="O94" s="58">
         <v>0</v>
@@ -8017,18 +8018,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="95" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G95" s="32" t="s">
         <v>10</v>
       </c>
       <c r="I95" s="58">
-        <v>3.7308386446571035E-5</v>
+        <v>3.7308386446571049E-5</v>
       </c>
       <c r="J95" s="58">
         <v>3.1817309853905961E-4</v>
       </c>
       <c r="K95" s="58">
-        <v>3.6250425511735053E-5</v>
+        <v>3.6250425511735066E-5</v>
       </c>
       <c r="L95" s="58">
         <v>3.6512496725793187E-5</v>
@@ -8082,18 +8083,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="7:28" x14ac:dyDescent="0.25">
+    <row r="96" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G96" s="32" t="s">
         <v>11</v>
       </c>
       <c r="I96" s="58">
-        <v>-1.0342562568118445E-4</v>
+        <v>-1.034256256811845E-4</v>
       </c>
       <c r="J96" s="58">
         <v>2.098976702751692E-4</v>
       </c>
       <c r="K96" s="58">
-        <v>-1.0946409192262506E-4</v>
+        <v>-1.094640919226251E-4</v>
       </c>
       <c r="L96" s="58">
         <v>-1.0163149252047163E-4</v>
@@ -8102,7 +8103,7 @@
         <v>-9.4792993366883145E-5</v>
       </c>
       <c r="N96" s="58">
-        <v>-1.0627347405907474E-4</v>
+        <v>-1.0627347405907477E-4</v>
       </c>
       <c r="O96" s="58">
         <v>0</v>
@@ -8147,18 +8148,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G97" s="32" t="s">
         <v>12</v>
       </c>
       <c r="I97" s="58">
-        <v>-1.0381823686355888E-4</v>
+        <v>-1.0381823686355893E-4</v>
       </c>
       <c r="J97" s="58">
         <v>1.1827798978997408E-4</v>
       </c>
       <c r="K97" s="58">
-        <v>-1.0713977057532101E-4</v>
+        <v>-1.0713977057532105E-4</v>
       </c>
       <c r="L97" s="58">
         <v>-1.0365981176728861E-4</v>
@@ -8167,7 +8168,7 @@
         <v>-9.9034079486761127E-5</v>
       </c>
       <c r="N97" s="58">
-        <v>-1.0491696165854206E-4</v>
+        <v>-1.0491696165854207E-4</v>
       </c>
       <c r="O97" s="58">
         <v>0</v>
@@ -8212,18 +8213,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G98" s="32" t="s">
         <v>13</v>
       </c>
       <c r="I98" s="58">
-        <v>-7.8632907395847845E-4</v>
+        <v>-7.8632907395847866E-4</v>
       </c>
       <c r="J98" s="58">
         <v>4.9829637801470609E-4</v>
       </c>
       <c r="K98" s="58">
-        <v>-8.1773373671048153E-4</v>
+        <v>-8.1773373671048186E-4</v>
       </c>
       <c r="L98" s="58">
         <v>-7.6960645997382025E-4</v>
@@ -8232,7 +8233,7 @@
         <v>-6.3980581904221677E-4</v>
       </c>
       <c r="N98" s="58">
-        <v>-7.9024024329498854E-4</v>
+        <v>-7.9024024329498864E-4</v>
       </c>
       <c r="O98" s="58">
         <v>0</v>
@@ -8277,7 +8278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G99" s="32" t="s">
         <v>14</v>
       </c>
@@ -8342,11 +8343,11 @@
         <v>9.9999999999999998E-13</v>
       </c>
     </row>
-    <row r="100" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:28" x14ac:dyDescent="0.3">
       <c r="I100" s="90"/>
       <c r="J100" s="90"/>
     </row>
-    <row r="101" spans="2:28" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:28" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="109" t="s">
         <v>104</v>
       </c>
@@ -8355,7 +8356,7 @@
       <c r="E101" s="109"/>
       <c r="F101" s="109"/>
     </row>
-    <row r="102" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G102" s="109"/>
     </row>
   </sheetData>
@@ -8373,37 +8374,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:X59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" customWidth="1"/>
-    <col min="17" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" customWidth="1"/>
-    <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.140625" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="17" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.88671875" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.109375" customWidth="1"/>
+    <col min="23" max="23" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:24" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E3" s="227" t="s">
         <v>105</v>
       </c>
@@ -8427,7 +8428,7 @@
       <c r="W3" s="228"/>
       <c r="X3" s="229"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E4" s="236" t="s">
         <v>15</v>
       </c>
@@ -8459,7 +8460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="E5" s="68" t="s">
         <v>16</v>
       </c>
@@ -8521,7 +8522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E6" s="68" t="s">
         <v>17</v>
       </c>
@@ -8583,7 +8584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="21" t="s">
         <v>40</v>
       </c>
@@ -8651,7 +8652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B8" s="36" t="s">
         <v>16</v>
       </c>
@@ -8722,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B9" s="37" t="s">
         <v>0</v>
       </c>
@@ -8793,7 +8794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="37" t="s">
         <v>1</v>
       </c>
@@ -8865,7 +8866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B11" s="37" t="s">
         <v>2</v>
       </c>
@@ -8937,7 +8938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" s="37" t="s">
         <v>3</v>
       </c>
@@ -9008,7 +9009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="38" t="s">
         <v>4</v>
       </c>
@@ -9077,7 +9078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B14" s="38" t="s">
         <v>5</v>
       </c>
@@ -9146,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B15" s="38" t="s">
         <v>6</v>
       </c>
@@ -9215,7 +9216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B16" s="38" t="s">
         <v>7</v>
       </c>
@@ -9284,7 +9285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B17" s="38" t="s">
         <v>8</v>
       </c>
@@ -9353,7 +9354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B18" s="38" t="s">
         <v>9</v>
       </c>
@@ -9422,7 +9423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B19" s="38" t="s">
         <v>10</v>
       </c>
@@ -9491,7 +9492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B20" s="38" t="s">
         <v>11</v>
       </c>
@@ -9560,7 +9561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B21" s="38" t="s">
         <v>12</v>
       </c>
@@ -9629,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B22" s="38" t="s">
         <v>13</v>
       </c>
@@ -9698,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="38" t="s">
         <v>14</v>
       </c>
@@ -9767,14 +9768,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B28" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B29" s="21" t="s">
         <v>106</v>
       </c>
@@ -9784,7 +9785,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
         <v>86</v>
       </c>
@@ -9794,7 +9795,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B31" s="21" t="s">
         <v>85</v>
       </c>
@@ -9804,7 +9805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B32" s="21" t="s">
         <v>49</v>
       </c>
@@ -9814,7 +9815,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -9830,7 +9831,7 @@
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
@@ -9848,7 +9849,7 @@
       </c>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
@@ -9870,7 +9871,7 @@
       </c>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37" s="20" t="s">
         <v>40</v>
       </c>
@@ -9900,13 +9901,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" s="36" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="22" cm="1">
         <f t="array" ref="C38">SQRT(MMULT(MMULT($E8:$X8,'Primitive Factor Input'!$I$80:$AB$99),TRANSPOSE($E8:$X8)))</f>
-        <v>0.1293959042738313</v>
+        <v>0.12939590427383135</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>43</v>
@@ -9936,13 +9937,13 @@
       <c r="P38" s="39"/>
       <c r="Q38" s="39"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39" s="37" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="23" cm="1">
         <f t="array" ref="C39">SQRT(MMULT(MMULT($E9:$X9,'Primitive Factor Input'!$I$80:$AB$99),TRANSPOSE($E9:$X9)))</f>
-        <v>0.18260184774713289</v>
+        <v>0.18260184774713295</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>43</v>
@@ -9969,7 +9970,7 @@
       <c r="P39" s="40"/>
       <c r="Q39" s="40"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" s="37" t="s">
         <v>1</v>
       </c>
@@ -10004,7 +10005,7 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="40"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41" s="37" t="s">
         <v>2</v>
       </c>
@@ -10039,13 +10040,13 @@
       <c r="P41" s="40"/>
       <c r="Q41" s="40"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B42" s="37" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="23" cm="1">
         <f t="array" ref="C42">SQRT(MMULT(MMULT($E12:$X12,'Primitive Factor Input'!$I$80:$AB$99),TRANSPOSE($E12:$X12)))</f>
-        <v>0.13486760276575521</v>
+        <v>0.13486760276575524</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>43</v>
@@ -10074,7 +10075,7 @@
       <c r="P42" s="40"/>
       <c r="Q42" s="40"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43" s="38" t="s">
         <v>4</v>
       </c>
@@ -10109,7 +10110,7 @@
       <c r="P43" s="41"/>
       <c r="Q43" s="41"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" s="38" t="s">
         <v>5</v>
       </c>
@@ -10144,7 +10145,7 @@
       <c r="P44" s="41"/>
       <c r="Q44" s="41"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45" s="38" t="s">
         <v>6</v>
       </c>
@@ -10180,7 +10181,7 @@
       <c r="P45" s="41"/>
       <c r="Q45" s="41"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46" s="38" t="s">
         <v>7</v>
       </c>
@@ -10219,7 +10220,7 @@
       <c r="P46" s="41"/>
       <c r="Q46" s="41"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47" s="38" t="s">
         <v>8</v>
       </c>
@@ -10249,7 +10250,7 @@
       <c r="P47" s="41"/>
       <c r="Q47" s="41"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48" s="38" t="s">
         <v>9</v>
       </c>
@@ -10284,7 +10285,7 @@
       <c r="P48" s="41"/>
       <c r="Q48" s="41"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B49" s="38" t="s">
         <v>10</v>
       </c>
@@ -10319,7 +10320,7 @@
       <c r="P49" s="41"/>
       <c r="Q49" s="41"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B50" s="38" t="s">
         <v>11</v>
       </c>
@@ -10354,7 +10355,7 @@
       <c r="P50" s="41"/>
       <c r="Q50" s="41"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B51" s="38" t="s">
         <v>12</v>
       </c>
@@ -10393,7 +10394,7 @@
       <c r="P51" s="41"/>
       <c r="Q51" s="41"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B52" s="38" t="s">
         <v>13</v>
       </c>
@@ -10430,7 +10431,7 @@
       <c r="P52" s="41"/>
       <c r="Q52" s="41"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B53" s="38" t="s">
         <v>14</v>
       </c>
@@ -10463,12 +10464,12 @@
       <c r="P53" s="41"/>
       <c r="Q53" s="41"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B56" s="20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>130</v>
       </c>
@@ -10476,7 +10477,7 @@
         <v>0.61520600000000003</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>6</v>
       </c>
@@ -10484,7 +10485,7 @@
         <v>0.26524199999999998</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>7</v>
       </c>
@@ -10506,34 +10507,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AA18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F20:F21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
     <col min="9" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" customWidth="1"/>
-    <col min="12" max="22" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5546875" customWidth="1"/>
+    <col min="12" max="22" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
       <c r="F1">
         <f t="array" ref="F1">SUM(MMULT(F3:F18,TRANSPOSE(F3:F18))*MMULT(J3:J18,TRANSPOSE(J3:J18))*L3:AA18)^0.5</f>
-        <v>0.13809252869673208</v>
+        <v>0.13809252869673211</v>
       </c>
       <c r="L1" s="223" t="s">
         <v>29</v>
@@ -10554,7 +10555,7 @@
       <c r="Z1" s="223"/>
       <c r="AA1" s="223"/>
     </row>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>157</v>
       </c>
@@ -10625,7 +10626,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="46" t="s">
         <v>66</v>
       </c>
@@ -10650,59 +10651,59 @@
       </c>
       <c r="J3" s="22">
         <f>'Int step - Component Weights'!C38</f>
-        <v>0.1293959042738313</v>
+        <v>0.12939590427383135</v>
       </c>
       <c r="L3" s="43">
         <f t="array" ref="L3:AA18">MMULT(MMULT('Int step - Component Weights'!E8:X23,'Primitive Factor Input'!I80:AB99),TRANSPOSE('Int step - Component Weights'!E8:X23))/MMULT('Int step - Component Weights'!C38:C53,TRANSPOSE('Int step - Component Weights'!C38:C53))</f>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="M3" s="209">
-        <v>0.90305220936855024</v>
+        <v>0.90305220936855046</v>
       </c>
       <c r="N3" s="209">
-        <v>0.97772567446297132</v>
+        <v>0.97772567446297154</v>
       </c>
       <c r="O3" s="209">
-        <v>0.85470472848977985</v>
+        <v>0.85470472848977996</v>
       </c>
       <c r="P3" s="209">
-        <v>0.89887058745869308</v>
+        <v>0.89887058745869319</v>
       </c>
       <c r="Q3" s="209">
-        <v>-2.6107898842556699E-2</v>
+        <v>-2.610789884255689E-2</v>
       </c>
       <c r="R3" s="209">
-        <v>-0.10957898124137068</v>
+        <v>-0.10957898124137076</v>
       </c>
       <c r="S3" s="209">
-        <v>-4.7325439527917589E-2</v>
+        <v>-4.7325439527917706E-2</v>
       </c>
       <c r="T3" s="209">
-        <v>1.635469882558723E-3</v>
+        <v>1.6354698825586575E-3</v>
       </c>
       <c r="U3" s="209">
-        <v>-2.4431867693789206E-2</v>
+        <v>-2.4431867693789345E-2</v>
       </c>
       <c r="V3" s="209">
-        <v>-0.10957898124137068</v>
+        <v>-0.10957898124137076</v>
       </c>
       <c r="W3" s="209">
-        <v>0.30914464723375434</v>
+        <v>0.30914464723375423</v>
       </c>
       <c r="X3" s="209">
-        <v>0.19946529567327281</v>
+        <v>0.19946529567327262</v>
       </c>
       <c r="Y3" s="209">
-        <v>4.2735348236898243E-2</v>
+        <v>4.2735348236898042E-2</v>
       </c>
       <c r="Z3" s="209">
-        <v>-0.1779738020089964</v>
+        <v>-0.17797380200899643</v>
       </c>
       <c r="AA3" s="209">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" s="46" t="s">
         <v>73</v>
       </c>
@@ -10727,49 +10728,49 @@
       </c>
       <c r="J4" s="23">
         <f>'Int step - Component Weights'!C39</f>
-        <v>0.18260184774713289</v>
+        <v>0.18260184774713295</v>
       </c>
       <c r="L4" s="210">
-        <v>0.90305220936855035</v>
+        <v>0.90305220936855046</v>
       </c>
       <c r="M4" s="44">
         <v>1.0000000000000002</v>
       </c>
       <c r="N4" s="210">
-        <v>0.82831892264679863</v>
+        <v>0.82831892264679852</v>
       </c>
       <c r="O4" s="210">
-        <v>0.72837147756969312</v>
+        <v>0.72837147756969323</v>
       </c>
       <c r="P4" s="210">
-        <v>0.99911784020937466</v>
+        <v>0.99911784020937477</v>
       </c>
       <c r="Q4" s="210">
-        <v>-0.32351287917325589</v>
+        <v>-0.32351287917325594</v>
       </c>
       <c r="R4" s="210">
-        <v>-0.41315037694604584</v>
+        <v>-0.41315037694604578</v>
       </c>
       <c r="S4" s="210">
-        <v>-0.36025513168063866</v>
+        <v>-0.36025513168063861</v>
       </c>
       <c r="T4" s="210">
-        <v>-0.29865945326430804</v>
+        <v>-0.29865945326430809</v>
       </c>
       <c r="U4" s="210">
         <v>-0.34807566388405237</v>
       </c>
       <c r="V4" s="210">
-        <v>-0.41315037694604584</v>
+        <v>-0.41315037694604578</v>
       </c>
       <c r="W4" s="210">
-        <v>2.80322838445674E-2</v>
+        <v>2.8032283844567404E-2</v>
       </c>
       <c r="X4" s="210">
-        <v>-0.18234928199095313</v>
+        <v>-0.18234928199095315</v>
       </c>
       <c r="Y4" s="210">
-        <v>-0.28156438156692482</v>
+        <v>-0.28156438156692476</v>
       </c>
       <c r="Z4" s="210">
         <v>-0.44929008252390795</v>
@@ -10778,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="46" t="s">
         <v>69</v>
       </c>
@@ -10806,10 +10807,10 @@
         <v>9.5054537006706311E-2</v>
       </c>
       <c r="L5" s="210">
-        <v>0.97772567446297154</v>
+        <v>0.97772567446297143</v>
       </c>
       <c r="M5" s="210">
-        <v>0.82831892264679874</v>
+        <v>0.82831892264679863</v>
       </c>
       <c r="N5" s="44">
         <v>1</v>
@@ -10818,7 +10819,7 @@
         <v>0.88115085163216234</v>
       </c>
       <c r="P5" s="210">
-        <v>0.82873202829533699</v>
+        <v>0.82873202829533688</v>
       </c>
       <c r="Q5" s="210">
         <v>9.6806814650214526E-2</v>
@@ -10854,7 +10855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="46" t="s">
         <v>75</v>
       </c>
@@ -10882,10 +10883,10 @@
         <v>2.6564545533029758E-2</v>
       </c>
       <c r="L6" s="210">
-        <v>0.85470472848977996</v>
+        <v>0.85470472848977985</v>
       </c>
       <c r="M6" s="210">
-        <v>0.72837147756969312</v>
+        <v>0.728371477569693</v>
       </c>
       <c r="N6" s="210">
         <v>0.88115085163216211</v>
@@ -10930,7 +10931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B7" s="46" t="s">
         <v>74</v>
       </c>
@@ -10955,46 +10956,46 @@
       </c>
       <c r="J7" s="23">
         <f>'Int step - Component Weights'!C42</f>
-        <v>0.13486760276575521</v>
+        <v>0.13486760276575524</v>
       </c>
       <c r="L7" s="210">
-        <v>0.8988705874586933</v>
+        <v>0.89887058745869319</v>
       </c>
       <c r="M7" s="210">
-        <v>0.99911784020937466</v>
+        <v>0.99911784020937477</v>
       </c>
       <c r="N7" s="210">
-        <v>0.82873202829533699</v>
+        <v>0.82873202829533688</v>
       </c>
       <c r="O7" s="210">
         <v>0.7451628875377807</v>
       </c>
       <c r="P7" s="44">
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="Q7" s="210">
-        <v>-0.32403987834315684</v>
+        <v>-0.32403987834315678</v>
       </c>
       <c r="R7" s="210">
-        <v>-0.41479234473771232</v>
+        <v>-0.41479234473771237</v>
       </c>
       <c r="S7" s="210">
-        <v>-0.3582273850201792</v>
+        <v>-0.35822738502017915</v>
       </c>
       <c r="T7" s="210">
-        <v>-0.29487052495077015</v>
+        <v>-0.2948705249507701</v>
       </c>
       <c r="U7" s="210">
-        <v>-0.34700849855278881</v>
+        <v>-0.34700849855278876</v>
       </c>
       <c r="V7" s="210">
-        <v>-0.41479234473771232</v>
+        <v>-0.41479234473771237</v>
       </c>
       <c r="W7" s="210">
-        <v>2.7234874888821762E-2</v>
+        <v>2.7234874888821758E-2</v>
       </c>
       <c r="X7" s="210">
-        <v>-0.18262826722981035</v>
+        <v>-0.18262826722981038</v>
       </c>
       <c r="Y7" s="210">
         <v>-0.28443527118656947</v>
@@ -11006,7 +11007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B8" s="46" t="s">
         <v>76</v>
       </c>
@@ -11034,10 +11035,10 @@
         <v>0.16745873474928574</v>
       </c>
       <c r="L8" s="211">
-        <v>-2.6107898842556699E-2</v>
+        <v>-2.610789884255689E-2</v>
       </c>
       <c r="M8" s="211">
-        <v>-0.32351287917325589</v>
+        <v>-0.32351287917325594</v>
       </c>
       <c r="N8" s="211">
         <v>9.6806814650214526E-2</v>
@@ -11046,7 +11047,7 @@
         <v>5.3358417988131263E-2</v>
       </c>
       <c r="P8" s="211">
-        <v>-0.32403987834315684</v>
+        <v>-0.32403987834315678</v>
       </c>
       <c r="Q8" s="45">
         <v>1</v>
@@ -11082,7 +11083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="46" t="s">
         <v>77</v>
       </c>
@@ -11110,10 +11111,10 @@
         <v>0.20140740249674266</v>
       </c>
       <c r="L9" s="211">
-        <v>-0.10957898124137068</v>
+        <v>-0.10957898124137076</v>
       </c>
       <c r="M9" s="211">
-        <v>-0.41315037694604584</v>
+        <v>-0.41315037694604578</v>
       </c>
       <c r="N9" s="211">
         <v>1.0557626615579315E-2</v>
@@ -11122,7 +11123,7 @@
         <v>-2.1762940824218802E-2</v>
       </c>
       <c r="P9" s="211">
-        <v>-0.41479234473771232</v>
+        <v>-0.41479234473771237</v>
       </c>
       <c r="Q9" s="211">
         <v>0.88451869974848985</v>
@@ -11158,7 +11159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" s="46" t="s">
         <v>78</v>
       </c>
@@ -11186,10 +11187,10 @@
         <v>0.18856635093755458</v>
       </c>
       <c r="L10" s="211">
-        <v>-4.7325439527917589E-2</v>
+        <v>-4.7325439527917706E-2</v>
       </c>
       <c r="M10" s="211">
-        <v>-0.36025513168063866</v>
+        <v>-0.36025513168063861</v>
       </c>
       <c r="N10" s="211">
         <v>8.0950651567972251E-2</v>
@@ -11198,7 +11199,7 @@
         <v>6.0703541214087275E-2</v>
       </c>
       <c r="P10" s="211">
-        <v>-0.3582273850201792</v>
+        <v>-0.35822738502017915</v>
       </c>
       <c r="Q10" s="211">
         <v>0.86823759307453396</v>
@@ -11234,7 +11235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" s="46" t="s">
         <v>70</v>
       </c>
@@ -11262,10 +11263,10 @@
         <v>0.206620777763417</v>
       </c>
       <c r="L11" s="211">
-        <v>1.635469882558723E-3</v>
+        <v>1.6354698825586575E-3</v>
       </c>
       <c r="M11" s="211">
-        <v>-0.29865945326430804</v>
+        <v>-0.29865945326430809</v>
       </c>
       <c r="N11" s="211">
         <v>0.14695292956014547</v>
@@ -11274,7 +11275,7 @@
         <v>0.14056242815282968</v>
       </c>
       <c r="P11" s="211">
-        <v>-0.29487052495077015</v>
+        <v>-0.2948705249507701</v>
       </c>
       <c r="Q11" s="211">
         <v>0.72939539363202943</v>
@@ -11310,7 +11311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" s="46" t="s">
         <v>79</v>
       </c>
@@ -11338,7 +11339,7 @@
         <v>0.18135787928144773</v>
       </c>
       <c r="L12" s="211">
-        <v>-2.4431867693789206E-2</v>
+        <v>-2.4431867693789345E-2</v>
       </c>
       <c r="M12" s="211">
         <v>-0.34807566388405237</v>
@@ -11350,7 +11351,7 @@
         <v>8.0302647231619395E-2</v>
       </c>
       <c r="P12" s="211">
-        <v>-0.34700849855278881</v>
+        <v>-0.34700849855278876</v>
       </c>
       <c r="Q12" s="211">
         <v>0.96732574331503252</v>
@@ -11386,7 +11387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" s="46" t="s">
         <v>80</v>
       </c>
@@ -11414,10 +11415,10 @@
         <v>0.20140740249674266</v>
       </c>
       <c r="L13" s="211">
-        <v>-0.10957898124137068</v>
+        <v>-0.10957898124137076</v>
       </c>
       <c r="M13" s="211">
-        <v>-0.41315037694604584</v>
+        <v>-0.41315037694604578</v>
       </c>
       <c r="N13" s="211">
         <v>1.0557626615579315E-2</v>
@@ -11426,7 +11427,7 @@
         <v>-2.1762940824218802E-2</v>
       </c>
       <c r="P13" s="211">
-        <v>-0.41479234473771232</v>
+        <v>-0.41479234473771237</v>
       </c>
       <c r="Q13" s="211">
         <v>0.88451869974848985</v>
@@ -11462,7 +11463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B14" s="46" t="s">
         <v>81</v>
       </c>
@@ -11490,10 +11491,10 @@
         <v>0.18032677085918003</v>
       </c>
       <c r="L14" s="211">
-        <v>0.30914464723375434</v>
+        <v>0.30914464723375423</v>
       </c>
       <c r="M14" s="211">
-        <v>2.80322838445674E-2</v>
+        <v>2.8032283844567404E-2</v>
       </c>
       <c r="N14" s="211">
         <v>0.40021317907254789</v>
@@ -11502,7 +11503,7 @@
         <v>0.36114193769508945</v>
       </c>
       <c r="P14" s="211">
-        <v>2.7234874888821762E-2</v>
+        <v>2.7234874888821758E-2</v>
       </c>
       <c r="Q14" s="211">
         <v>0.73727072279588279</v>
@@ -11538,7 +11539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B15" s="46" t="s">
         <v>82</v>
       </c>
@@ -11566,10 +11567,10 @@
         <v>8.3709201670707736E-2</v>
       </c>
       <c r="L15" s="211">
-        <v>0.19946529567327281</v>
+        <v>0.19946529567327262</v>
       </c>
       <c r="M15" s="211">
-        <v>-0.18234928199095313</v>
+        <v>-0.18234928199095315</v>
       </c>
       <c r="N15" s="211">
         <v>0.33654644046571913</v>
@@ -11578,7 +11579,7 @@
         <v>0.31298772077072373</v>
       </c>
       <c r="P15" s="211">
-        <v>-0.18262826722981035</v>
+        <v>-0.18262826722981038</v>
       </c>
       <c r="Q15" s="211">
         <v>0.79178749104993351</v>
@@ -11614,7 +11615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16" s="46" t="s">
         <v>67</v>
       </c>
@@ -11642,10 +11643,10 @@
         <v>5.3061384336615877E-2</v>
       </c>
       <c r="L16" s="211">
-        <v>4.2735348236898243E-2</v>
+        <v>4.2735348236898042E-2</v>
       </c>
       <c r="M16" s="211">
-        <v>-0.28156438156692482</v>
+        <v>-0.28156438156692476</v>
       </c>
       <c r="N16" s="211">
         <v>0.1711845234094273</v>
@@ -11690,7 +11691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B17" s="46" t="s">
         <v>71</v>
       </c>
@@ -11718,7 +11719,7 @@
         <v>0.2537994416650402</v>
       </c>
       <c r="L17" s="211">
-        <v>-0.1779738020089964</v>
+        <v>-0.17797380200899643</v>
       </c>
       <c r="M17" s="211">
         <v>-0.44929008252390795</v>
@@ -11766,7 +11767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B18" s="46" t="s">
         <v>68</v>
       </c>
@@ -11852,30 +11853,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="112" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="112" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="112"/>
-    <col min="4" max="4" width="12.42578125" style="112" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="112" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="112"/>
+    <col min="1" max="1" width="25.109375" style="112" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="112" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="112"/>
+    <col min="4" max="4" width="12.44140625" style="112" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="112" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="112"/>
     <col min="8" max="11" width="11" style="112" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="112" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="112"/>
+    <col min="12" max="12" width="9.33203125" style="112" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="112"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N1" s="113"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="114" t="s">
         <v>137</v>
       </c>
@@ -11883,16 +11884,16 @@
         <v>44408</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="114" t="s">
         <v>138</v>
       </c>
       <c r="B3" s="222">
         <f t="array" ref="B3">SQRT(SUM(MMULT(TRANSPOSE($C$13:$C$28*'Factor Loadings'!B8:B23),'Factor Loadings'!E8:X23)*TRANSPOSE(MMULT(TRANSPOSE($C$13:$C$28*'Factor Loadings'!B8:B23),'Factor Loadings'!E8:X23))*'Primitive Factor Input'!I80:AB99))</f>
-        <v>0.13809252869673208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.13809252869673214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="114" t="s">
         <v>139</v>
       </c>
@@ -11900,7 +11901,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="114" t="s">
         <v>140</v>
       </c>
@@ -11919,7 +11920,7 @@
       <c r="K5" s="118"/>
       <c r="L5" s="118"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="114" t="s">
         <v>141</v>
       </c>
@@ -11938,7 +11939,7 @@
       <c r="K6" s="118"/>
       <c r="L6" s="118"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="114" t="s">
         <v>142</v>
       </c>
@@ -11957,7 +11958,7 @@
       <c r="K7" s="118"/>
       <c r="L7" s="118"/>
     </row>
-    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="120"/>
       <c r="B11" s="241" t="s">
         <v>143</v>
@@ -11981,7 +11982,7 @@
       <c r="I11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="123"/>
       <c r="B12" s="241"/>
       <c r="C12" s="241"/>
@@ -12003,7 +12004,7 @@
       <c r="I12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="242" t="s">
         <v>148</v>
       </c>
@@ -12019,7 +12020,7 @@
       </c>
       <c r="E13" s="127">
         <f>'Primitive Factor Input'!$F$59*10000</f>
-        <v>71.712427024068845</v>
+        <v>71.712427024068873</v>
       </c>
       <c r="F13" s="127">
         <v>0</v>
@@ -12034,7 +12035,7 @@
       <c r="I13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="243"/>
       <c r="B14" s="124" t="s">
         <v>1</v>
@@ -12064,7 +12065,7 @@
       <c r="I14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="244"/>
       <c r="B15" s="124" t="s">
         <v>2</v>
@@ -12092,7 +12093,7 @@
       <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="130" t="s">
         <v>149</v>
       </c>
@@ -12106,7 +12107,7 @@
       </c>
       <c r="E16" s="133">
         <f>'Primitive Factor Input'!$F$62*10000</f>
-        <v>69.515824662044466</v>
+        <v>69.51582466204448</v>
       </c>
       <c r="F16" s="133">
         <v>0</v>
@@ -12121,7 +12122,7 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="242" t="s">
         <v>150</v>
       </c>
@@ -12149,7 +12150,7 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="243"/>
       <c r="B18" s="136" t="s">
         <v>5</v>
@@ -12175,7 +12176,7 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="243"/>
       <c r="B19" s="136" t="s">
         <v>6</v>
@@ -12201,7 +12202,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="243"/>
       <c r="B20" s="136" t="s">
         <v>7</v>
@@ -12227,7 +12228,7 @@
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="243"/>
       <c r="B21" s="136" t="s">
         <v>8</v>
@@ -12255,7 +12256,7 @@
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="243"/>
       <c r="B22" s="136" t="s">
         <v>9</v>
@@ -12283,7 +12284,7 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="243"/>
       <c r="B23" s="136" t="s">
         <v>10</v>
@@ -12311,7 +12312,7 @@
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="243"/>
       <c r="B24" s="136" t="s">
         <v>11</v>
@@ -12339,7 +12340,7 @@
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="243"/>
       <c r="B25" s="136" t="s">
         <v>12</v>
@@ -12367,7 +12368,7 @@
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="244"/>
       <c r="B26" s="136" t="s">
         <v>13</v>
@@ -12393,7 +12394,7 @@
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="130" t="s">
         <v>14</v>
       </c>
@@ -12422,7 +12423,7 @@
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="141" t="s">
         <v>16</v>
       </c>
@@ -12438,7 +12439,7 @@
       </c>
       <c r="E28" s="145">
         <f>'Primitive Factor Input'!$F$57*10000</f>
-        <v>69.838693014654282</v>
+        <v>69.838693014654311</v>
       </c>
       <c r="F28" s="145">
         <f>'Primitive Factor Input'!$F$58*10000</f>
@@ -12452,7 +12453,7 @@
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="142" t="s">
         <v>151</v>
       </c>
@@ -12465,7 +12466,7 @@
         <v>4.7611107680805072E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="245"/>
       <c r="B32" s="245"/>
       <c r="C32" s="245"/>
@@ -12479,7 +12480,7 @@
       <c r="K32" s="245"/>
       <c r="L32" s="245"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="149"/>
       <c r="B33" s="149"/>
       <c r="C33" s="149"/>
@@ -12493,7 +12494,7 @@
       <c r="K33" s="149"/>
       <c r="L33" s="149"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="149"/>
       <c r="B34" s="149"/>
       <c r="C34" s="149"/>
@@ -12507,7 +12508,7 @@
       <c r="K34" s="149"/>
       <c r="L34" s="149"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="149"/>
       <c r="B35" s="149"/>
       <c r="C35" s="149"/>
@@ -12521,7 +12522,7 @@
       <c r="K35" s="149"/>
       <c r="L35" s="149"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="149"/>
       <c r="B36" s="149"/>
       <c r="C36" s="149"/>
@@ -12535,7 +12536,7 @@
       <c r="K36" s="149"/>
       <c r="L36" s="149"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="149"/>
       <c r="B37" s="149"/>
       <c r="C37" s="149"/>
@@ -12549,7 +12550,7 @@
       <c r="K37" s="149"/>
       <c r="L37" s="149"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="149"/>
       <c r="B38" s="149"/>
       <c r="C38" s="149"/>
@@ -12581,34 +12582,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:X25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="150" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="150" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="150" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" style="150" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="150"/>
-    <col min="7" max="7" width="15.7109375" style="150" customWidth="1"/>
-    <col min="8" max="10" width="18.7109375" style="150" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="150" customWidth="1"/>
-    <col min="12" max="13" width="17.7109375" style="150" customWidth="1"/>
-    <col min="14" max="19" width="13.42578125" style="150" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="150" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="150" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="150" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" style="150" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="150"/>
+    <col min="7" max="7" width="15.6640625" style="150" customWidth="1"/>
+    <col min="8" max="10" width="18.6640625" style="150" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="150" customWidth="1"/>
+    <col min="12" max="13" width="17.6640625" style="150" customWidth="1"/>
+    <col min="14" max="19" width="13.44140625" style="150" customWidth="1"/>
     <col min="20" max="20" width="15" style="150" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" style="150" customWidth="1"/>
-    <col min="22" max="23" width="13.42578125" style="150" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" style="150" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="150"/>
+    <col min="21" max="21" width="16.109375" style="150" customWidth="1"/>
+    <col min="22" max="23" width="13.44140625" style="150" customWidth="1"/>
+    <col min="24" max="24" width="13.5546875" style="150" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="150"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="246" t="s">
         <v>152</v>
       </c>
@@ -12674,7 +12675,7 @@
       <c r="W4" s="158"/>
       <c r="X4" s="159"/>
     </row>
-    <row r="5" spans="2:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B5" s="247"/>
       <c r="C5" s="249"/>
       <c r="D5" s="251"/>
@@ -12742,7 +12743,7 @@
         <v>Cash</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="247"/>
       <c r="C6" s="249"/>
       <c r="D6" s="251"/>
@@ -12807,7 +12808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="247"/>
       <c r="C7" s="249"/>
       <c r="D7" s="251"/>
@@ -12872,7 +12873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="174">
         <f t="shared" ref="B8:B22" si="0">Funded_Status</f>
         <v>1.02</v>
@@ -12950,7 +12951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="181">
         <f t="shared" si="0"/>
         <v>1.02</v>
@@ -13028,7 +13029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="181">
         <f t="shared" si="0"/>
         <v>1.02</v>
@@ -13106,7 +13107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="181">
         <f t="shared" si="0"/>
         <v>1.02</v>
@@ -13184,7 +13185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="174">
         <f t="shared" si="0"/>
         <v>1.02</v>
@@ -13257,7 +13258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="181">
         <f t="shared" si="0"/>
         <v>1.02</v>
@@ -13330,7 +13331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="181">
         <f t="shared" si="0"/>
         <v>1.02</v>
@@ -13403,7 +13404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="181">
         <f t="shared" si="0"/>
         <v>1.02</v>
@@ -13476,7 +13477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="181">
         <f t="shared" si="0"/>
         <v>1.02</v>
@@ -13549,7 +13550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="181">
         <f t="shared" si="0"/>
         <v>1.02</v>
@@ -13622,7 +13623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="181">
         <f t="shared" si="0"/>
         <v>1.02</v>
@@ -13695,7 +13696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="181">
         <f t="shared" si="0"/>
         <v>1.02</v>
@@ -13768,7 +13769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="181">
         <f t="shared" si="0"/>
         <v>1.02</v>
@@ -13841,7 +13842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="181">
         <f t="shared" si="0"/>
         <v>1.02</v>
@@ -13914,7 +13915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="181">
         <f t="shared" si="0"/>
         <v>1.02</v>
@@ -13987,7 +13988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="192">
         <v>1</v>
       </c>
@@ -14060,7 +14061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="199"/>
       <c r="C25" s="199"/>
       <c r="D25" s="199"/>
